--- a/Data_file/OB_inventory_04/RM01-Cost.xlsx
+++ b/Data_file/OB_inventory_04/RM01-Cost.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="312">
   <si>
     <t>partner_id</t>
   </si>
@@ -961,13 +961,17 @@
   </si>
   <si>
     <t>RM01/Stock</t>
+  </si>
+  <si>
+    <t>RM01/STOCK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
@@ -1020,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1032,6 +1036,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1315,7 +1324,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
@@ -1324,6 +1333,7 @@
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1359,78 +1369,104 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45775</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45775</v>
-      </c>
-      <c r="E2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" t="s">
-        <v>251</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10">
-        <v>7022.6922333333296</v>
-      </c>
-      <c r="J2" s="8">
-        <v>190</v>
+      <c r="A2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45750</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12">
+        <v>45750</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11">
+        <v>35</v>
+      </c>
+      <c r="I2" s="14">
+        <v>3417.8484457142899</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45775</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45775</v>
-      </c>
-      <c r="E3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="10">
-        <v>2026.0565999999999</v>
-      </c>
-      <c r="J3" s="8">
-        <v>191</v>
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45750</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12">
+        <v>45750</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11">
+        <v>25</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1152.7908</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12">
+        <v>45750</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45750</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="11">
+        <v>25</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1618.587464</v>
+      </c>
+      <c r="J4" s="15">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
